--- a/biology/Zoologie/Euxoa_aquilina/Euxoa_aquilina.xlsx
+++ b/biology/Zoologie/Euxoa_aquilina/Euxoa_aquilina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euxoa aquilina, la Noctuelle aquiline, est une espèce de lépidoptères (papillons) de la famille des Noctuidae (papillons de nuit), originaire du bassin méditerranéen.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Funet[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Funet :
 Noctua aquilina Denis &amp; Schiffermüller, 1775
 Euxoa distaxis Boursin, 1928
 Euxoa titschacki Corti, 1930
@@ -531,9 +548,43 @@
 Agrotis uniformis Rougemont, 1902
 Agrotis petrina Mayer, 1937
 Agrotis tritici var. falleri Schawerda, 1927
-Euxoa vinosa Schawerda, 1930
-Liste des sous-espèces
-Selon Catalogue of Life                                   (7 sept. 2013)[2] :
+Euxoa vinosa Schawerda, 1930</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Euxoa_aquilina</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euxoa_aquilina</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (7 sept. 2013) :
 sous-espèce Euxoa aquilina actinea Kozhanchikov, 1934
 sous-espèce Euxoa aquilina falleri Schawerda, 1927
 sous-espèce Euxoa aquilina obeliscata Wagner, 1929
